--- a/黑色/玻璃/eta/1.玻璃纯碱_数据上传.xlsx
+++ b/黑色/玻璃/eta/1.玻璃纯碱_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1133,7 +1133,7 @@
         <v>45729</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>-287.2</v>
+        <v>-186.97</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.1065375032855012</v>
+        <v>0.1070294301185678</v>
       </c>
     </row>
     <row r="4">
@@ -1172,7 +1172,7 @@
         <v>45730</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>980.71</v>
+        <v>1066.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.02672377360835814</v>
+        <v>0.02721217643527364</v>
       </c>
     </row>
     <row r="5">
@@ -1211,7 +1211,7 @@
         <v>45756</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>87.539</v>
+        <v>83.45099999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45756</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>79.81399999999999</v>
+        <v>75.727</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-173.05</v>
+        <v>-186.97</v>
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1094.9</v>
+        <v>1066.2</v>
       </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>87.539</v>
+        <v>83.45099999999999</v>
       </c>
       <c r="O3" s="1" t="n"/>
       <c r="P3" t="inlineStr">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>79.81399999999999</v>
+        <v>75.727</v>
       </c>
       <c r="T3" s="1" t="n"/>
     </row>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-259.68</v>
+        <v>-260.87</v>
       </c>
       <c r="C4" t="n">
         <v>-224.03</v>
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1372843499691929</v>
+        <v>0.1412197646337256</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1132.1</v>
+        <v>1128.1</v>
       </c>
       <c r="H4" t="n">
         <v>1247.5</v>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.1019344580867415</v>
+        <v>0.1058416807020655</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90.056</v>
+        <v>86.033</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>81.572</v>
+        <v>77.54900000000001</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -3313,19 +3313,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-162.2968139648438</v>
+        <v>-179.7534332275391</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1046.60131348</v>
+        <v>1017.97872044</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>87.53855133056641</v>
+        <v>83.45143890380859</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -3341,25 +3341,25 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>79.81385133056641</v>
+        <v>75.7267389038086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-165.2823791503906</v>
+        <v>-182.9226226806641</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1052.036706472</v>
+        <v>1014.87872044</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>87.6802978515625</v>
+        <v>83.63340759277344</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -3375,25 +3375,25 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>79.9555978515625</v>
+        <v>75.90870759277344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-172.7417602539062</v>
+        <v>-183.4589538574219</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1053.072099464</v>
+        <v>1014.27872044</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>86.30647277832031</v>
+        <v>82.22644805908203</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -3409,25 +3409,25 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>77.95037277832031</v>
+        <v>73.87034805908203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-170.9573669433594</v>
+        <v>-181.8994445800781</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1063.207492456</v>
+        <v>1024.845045184</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>93.0445556640625</v>
+        <v>89.06330108642578</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -3443,25 +3443,25 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>84.17325566406249</v>
+        <v>80.19200108642578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-173.6572418212891</v>
+        <v>-181.9226684570312</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1068.942885448</v>
+        <v>1033.811369928</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>93.19255065917969</v>
+        <v>89.20955657958984</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -3477,25 +3477,25 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>84.20865065917968</v>
+        <v>80.22565657958984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-173.3092651367188</v>
+        <v>-184.1234588623047</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1077.77827844</v>
+        <v>1040.577694672</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>93.48639678955078</v>
+        <v>89.45149230957031</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3511,25 +3511,25 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>84.50199678955079</v>
+        <v>80.46709230957032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-170.9257965087891</v>
+        <v>-189.3275451660156</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1088.759099312</v>
+        <v>1044.344019416</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-172.6294708251953</v>
+        <v>-178.9316253662109</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1095.639920184</v>
+        <v>1063.71034416</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3585,19 +3585,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-174.9938201904297</v>
+        <v>-193.2131805419922</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1101.820741056</v>
+        <v>1058.555693984</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3619,19 +3619,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-174.2727813720703</v>
+        <v>-190.3182678222656</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1111.101561928</v>
+        <v>1070.601043808</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3653,19 +3653,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-178.7351531982422</v>
+        <v>-186.7946472167969</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1115.2823828</v>
+        <v>1083.246393632</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3687,19 +3687,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-177.4708099365234</v>
+        <v>-190.3533477783203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1124.360974196</v>
+        <v>1088.791743456</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3721,19 +3721,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-177.4962463378906</v>
+        <v>-190.9253540039062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1132.239565592</v>
+        <v>1097.43709328</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3755,19 +3755,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-175.8176727294922</v>
+        <v>-189.6723785400391</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1141.818156988</v>
+        <v>1107.080213628</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3789,19 +3789,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-175.1221008300781</v>
+        <v>-190.9001922607422</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1150.396748384</v>
+        <v>1114.323333976</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3823,19 +3823,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-175.0675811767578</v>
+        <v>-191.0447235107422</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1158.27533978</v>
+        <v>1122.666454324</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3857,19 +3857,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-172.2373657226562</v>
+        <v>-192.982177734375</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1167.863054424</v>
+        <v>1129.109574672</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3891,19 +3891,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-174.2145843505859</v>
+        <v>-194.0317535400391</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1172.550769068</v>
+        <v>1136.55269502</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3925,19 +3925,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-170.0825042724609</v>
+        <v>-192.5855712890625</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1183.338483712</v>
+        <v>1145.204938616</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3959,19 +3959,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-163.6907501220703</v>
+        <v>-192.6196136474609</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1196.426198356</v>
+        <v>1152.457182212</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3993,19 +3993,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-274.7875</v>
+        <v>-253.7875</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4027,19 +4027,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-286.8301</v>
+        <v>-271.7875</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4061,19 +4061,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-300.8301</v>
+        <v>-272.7875</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4095,19 +4095,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-307.8301</v>
+        <v>-273.7875</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4129,19 +4129,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-303.8301</v>
+        <v>-274.7875</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4163,19 +4163,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/19</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-302.4967666666667</v>
+        <v>-286.8301</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4197,19 +4197,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-301.1634333333333</v>
+        <v>-300.8301</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1147</v>
+        <v>1091</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4231,19 +4231,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>2025/10/21</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-307.8301</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>2025/10/17</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>-299.8301</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2025/10/15</t>
-        </is>
-      </c>
       <c r="E30" t="n">
-        <v>1129</v>
+        <v>1095</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4265,19 +4265,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>2025/10/20</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-303.8301</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>2025/10/16</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>-265.2532</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2025/10/14</t>
-        </is>
-      </c>
       <c r="E31" t="n">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4299,19 +4299,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2025/10/19</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-302.4967666666667</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>2025/10/15</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>-283.2532</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2025/10/13</t>
-        </is>
-      </c>
       <c r="E32" t="n">
-        <v>1179</v>
+        <v>1129</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4333,19 +4333,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2025/10/18</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-301.1634333333333</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>2025/10/14</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>-274.2532</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2025/10/10</t>
-        </is>
-      </c>
       <c r="E33" t="n">
-        <v>1207</v>
+        <v>1138</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4367,19 +4367,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2025/10/17</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-299.8301</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>2025/10/13</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-233.2532</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2025/10/09</t>
-        </is>
-      </c>
       <c r="E34" t="n">
-        <v>1218</v>
+        <v>1179</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4401,19 +4401,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/12</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-223.9198666666666</v>
+        <v>-265.2532</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4435,19 +4435,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-214.5865333333333</v>
+        <v>-283.2532</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4469,19 +4469,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-205.2532</v>
+        <v>-274.2532</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1252</v>
+        <v>1210</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4503,19 +4503,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-235.8791</v>
+        <v>-233.2532</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1270</v>
+        <v>1228</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4537,19 +4537,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/12</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-236.7679888888889</v>
+        <v>-223.9198666666666</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4571,19 +4571,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-237.6568777777778</v>
+        <v>-214.5865333333333</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1183</v>
+        <v>1270</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4605,19 +4605,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-238.5457666666667</v>
+        <v>-205.2532</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1199</v>
+        <v>1237</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4639,19 +4639,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/10/05</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-239.4346555555555</v>
+        <v>-235.8791</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1216</v>
+        <v>1183</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4673,19 +4673,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/10/04</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-240.3235444444445</v>
+        <v>-236.7679888888889</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4707,19 +4707,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-241.2124333333333</v>
+        <v>-237.6568777777778</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4741,19 +4741,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-242.1013222222222</v>
+        <v>-238.5457666666667</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4775,19 +4775,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-242.9902111111111</v>
+        <v>-239.4346555555555</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1207</v>
+        <v>1234</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4809,19 +4809,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/04</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-243.8791</v>
+        <v>-240.3235444444445</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1180</v>
+        <v>1237</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4843,19 +4843,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-225.8791</v>
+        <v>-241.2124333333333</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1185</v>
+        <v>1207</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4877,19 +4877,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-217.8791</v>
+        <v>-242.1013222222222</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4911,19 +4911,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/27</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-209.8791</v>
+        <v>-242.9902111111111</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4945,19 +4945,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-201.8791</v>
+        <v>-243.8791</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4979,19 +4979,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-165.2441</v>
+        <v>-225.8791</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5013,19 +5013,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-198.2441</v>
+        <v>-217.8791</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1139</v>
+        <v>1204</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5047,19 +5047,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/27</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-252.2441</v>
+        <v>-209.8791</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1135</v>
+        <v>1189</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5081,19 +5081,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-236.2441</v>
+        <v>-201.8791</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5115,19 +5115,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/21</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-230.5774333333333</v>
+        <v>-165.2441</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5149,19 +5149,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/20</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-224.9107666666667</v>
+        <v>-198.2441</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5183,19 +5183,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-219.2441</v>
+        <v>-252.2441</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1174</v>
+        <v>1137</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5217,19 +5217,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-219.1445</v>
+        <v>-236.2441</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5251,19 +5251,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/21</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-193.1445</v>
+        <v>-230.5774333333333</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5285,19 +5285,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-190.1445</v>
+        <v>-224.9107666666667</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5319,15 +5319,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-220.1445</v>
+        <v>-219.2441</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5353,19 +5353,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/09/14</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-229.1445</v>
+        <v>-219.1445</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1156</v>
+        <v>1191</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5387,19 +5387,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/09/13</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-238.1445</v>
+        <v>-193.1445</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5421,19 +5421,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-247.1445</v>
+        <v>-190.1445</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1196</v>
+        <v>1156</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -5455,19 +5455,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-224.5414</v>
+        <v>-220.1445</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1212</v>
+        <v>1162</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5489,19 +5489,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/14</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-228.5414</v>
+        <v>-229.1445</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5523,19 +5523,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/13</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-217.5414</v>
+        <v>-238.1445</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5557,19 +5557,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-205.5414</v>
+        <v>-247.1445</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5591,19 +5591,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/09/07</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-210.5414</v>
+        <v>-224.5414</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1073</v>
+        <v>1220</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -5625,19 +5625,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/09/06</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-215.5414</v>
+        <v>-228.5414</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1068</v>
+        <v>1214</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5659,19 +5659,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-220.5414</v>
+        <v>-217.5414</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5693,19 +5693,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-276.3491</v>
+        <v>-205.5414</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5727,19 +5727,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/07</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-280.3491</v>
+        <v>-210.5414</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5761,19 +5761,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-281.3491</v>
+        <v>-215.5414</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5795,19 +5795,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-278.3491</v>
+        <v>-220.5414</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5829,19 +5829,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/31</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-263.3491</v>
+        <v>-276.3491</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5863,19 +5863,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/30</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-248.3491</v>
+        <v>-280.3491</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5897,19 +5897,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-233.3491</v>
+        <v>-281.3491</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1191</v>
+        <v>1102</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5931,19 +5931,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-228.8697</v>
+        <v>-278.3491</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1188</v>
+        <v>1117</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5965,19 +5965,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/31</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-227.8697</v>
+        <v>-263.3491</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1223</v>
+        <v>1191</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5999,19 +5999,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/30</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-229.8697</v>
+        <v>-248.3491</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1362</v>
+        <v>1188</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -6033,19 +6033,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-211.8697</v>
+        <v>-233.3491</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1307</v>
+        <v>1223</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -6067,19 +6067,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/08/24</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-217.8697</v>
+        <v>-228.8697</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1211</v>
+        <v>1362</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6101,19 +6101,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/08/23</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-223.8697</v>
+        <v>-227.8697</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1249</v>
+        <v>1307</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1173</v>
+        <v>1211</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -6169,19 +6169,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-249.0296</v>
+        <v>-211.8697</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1081</v>
+        <v>1249</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -6203,19 +6203,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/24</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-243.0296</v>
+        <v>-217.8697</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1092</v>
+        <v>1173</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -6237,19 +6237,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/23</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-209.0296</v>
+        <v>-223.8697</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6271,19 +6271,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-193.0296</v>
+        <v>-229.8697</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1071</v>
+        <v>1092</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -6305,19 +6305,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/08/17</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-193.3629333333333</v>
+        <v>-249.0296</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6339,19 +6339,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/08/16</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-193.6962666666666</v>
+        <v>-243.0296</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6373,19 +6373,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-194.0296</v>
+        <v>-209.0296</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6407,19 +6407,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-203.9766</v>
+        <v>-193.0296</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1035</v>
+        <v>1086</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/17</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-209.9766</v>
+        <v>-193.3629333333333</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1025</v>
+        <v>1083</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -6475,19 +6475,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/16</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-350.9766</v>
+        <v>-193.6962666666666</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6509,19 +6509,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-355.9766</v>
+        <v>-194.0296</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6543,19 +6543,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/08/10</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-357.6432666666667</v>
+        <v>-203.9766</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6577,19 +6577,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/08/09</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-359.3099333333333</v>
+        <v>-209.9766</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1052</v>
+        <v>1026</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6611,19 +6611,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-360.9766</v>
+        <v>-350.9766</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>980</v>
+        <v>1039</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6645,19 +6645,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-376.1512</v>
+        <v>-355.9766</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1006</v>
+        <v>1052</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6679,19 +6679,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-369.1512</v>
+        <v>-357.6432666666667</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1019</v>
+        <v>980</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6713,19 +6713,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-375.1512</v>
+        <v>-359.3099333333333</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6747,19 +6747,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-366.1512</v>
+        <v>-360.9766</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6781,19 +6781,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/08/03</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-360.8178666666667</v>
+        <v>-376.1512</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6815,19 +6815,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/08/02</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-355.4845333333333</v>
+        <v>-369.1512</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6849,19 +6849,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-350.1512</v>
+        <v>-375.1512</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6883,19 +6883,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-306.3887</v>
+        <v>-366.1512</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6917,19 +6917,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-232.3887</v>
+        <v>-360.8178666666667</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6951,19 +6951,19 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/02</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-235.3887</v>
+        <v>-355.4845333333333</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6985,15 +6985,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-200.3887</v>
+        <v>-350.1512</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -7019,19 +7019,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/07/27</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-154.0553666666667</v>
+        <v>-306.3887</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -7053,19 +7053,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/07/26</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-107.7220333333333</v>
+        <v>-232.3887</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -7087,19 +7087,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-61.3887</v>
+        <v>-235.3887</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -7121,19 +7121,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-79.8745</v>
+        <v>-200.3887</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7155,19 +7155,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/27</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-175.8745</v>
+        <v>-154.0553666666667</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7189,19 +7189,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/26</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-137.8745</v>
+        <v>-107.7220333333333</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7223,19 +7223,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-213.8745</v>
+        <v>-61.3887</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>963</v>
+        <v>1006</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7257,19 +7257,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/07/20</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-244.5411666666667</v>
+        <v>-79.8745</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7291,19 +7291,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/07/19</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-275.2078333333333</v>
+        <v>-175.8745</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7325,19 +7325,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-305.8745</v>
+        <v>-137.8745</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7359,19 +7359,19 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-268.9198</v>
+        <v>-213.8745</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7393,19 +7393,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/20</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-290.9198</v>
+        <v>-244.5411666666667</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1009</v>
+        <v>982</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -7427,19 +7427,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/19</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-289.9198</v>
+        <v>-275.2078333333333</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1031</v>
+        <v>985</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7461,19 +7461,19 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-258.9198</v>
+        <v>-305.8745</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -7495,19 +7495,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/07/13</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-264.2531333333333</v>
+        <v>-268.9198</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1000</v>
+        <v>1031</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -7529,19 +7529,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/07/12</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-269.5864666666667</v>
+        <v>-290.9198</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -7563,19 +7563,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-274.9198</v>
+        <v>-289.9198</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7597,19 +7597,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-254.125</v>
+        <v>-258.9198</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -7631,19 +7631,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/13</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-302.125</v>
+        <v>-264.2531333333333</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7665,19 +7665,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/12</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-312.125</v>
+        <v>-269.5864666666667</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -7699,19 +7699,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-318.125</v>
+        <v>-274.9198</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -7733,19 +7733,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/07/06</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-315.7916666666667</v>
+        <v>-254.125</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1046</v>
+        <v>1005</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -7767,19 +7767,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/07/05</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-313.4583333333333</v>
+        <v>-302.125</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -7801,19 +7801,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-311.125</v>
+        <v>-312.125</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -7835,19 +7835,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-296.5531</v>
+        <v>-318.125</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -7869,19 +7869,19 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/06</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-283.5531</v>
+        <v>-315.7916666666667</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -7903,19 +7903,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-355.5531</v>
+        <v>-313.4583333333333</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7937,19 +7937,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-329.5531</v>
+        <v>-311.125</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7971,19 +7971,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/06/29</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-325.2197666666667</v>
+        <v>-296.5531</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -8005,19 +8005,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/06/28</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-320.8864333333333</v>
+        <v>-283.5531</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1108</v>
+        <v>1071</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -8039,19 +8039,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-316.5531</v>
+        <v>-355.5531</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1122</v>
+        <v>1082</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -8073,19 +8073,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-311.5015</v>
+        <v>-329.5531</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -8107,19 +8107,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/29</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-310.5015</v>
+        <v>-325.2197666666667</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -8141,19 +8141,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/28</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-312.5015</v>
+        <v>-320.8864333333333</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1154</v>
+        <v>1121</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -8175,19 +8175,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-320.5015</v>
+        <v>-316.5531</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -8209,19 +8209,19 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/06/22</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-320.5015</v>
+        <v>-311.5015</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1130</v>
+        <v>1154</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -8243,177 +8243,177 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/06/21</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-320.5015</v>
+        <v>-310.5015</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-320.5015</v>
+        <v>-312.5015</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-331.9254</v>
+        <v>-320.5015</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1185</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/22</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-349.9254</v>
+        <v>-320.5015</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1144</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/21</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-355.9254</v>
+        <v>-320.5015</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1152</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-349.9254</v>
+        <v>-320.5015</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/06/15</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-351.2587333333333</v>
+        <v>-331.9254</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1169</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/06/14</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-352.5920666666667</v>
+        <v>-349.9254</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1180</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-353.9254</v>
+        <v>-355.9254</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1190</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-348.0974</v>
+        <v>-349.9254</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -8423,645 +8423,645 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/15</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-331.0974</v>
+        <v>-351.2587333333333</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/14</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-334.0974</v>
+        <v>-352.5920666666667</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1225</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-323.0974</v>
+        <v>-353.9254</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1235</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/06/08</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-326.0974</v>
+        <v>-348.0974</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1181</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/06/07</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-329.0974</v>
+        <v>-331.0974</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1197</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-332.0974</v>
+        <v>-334.0974</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1236</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-391.2002</v>
+        <v>-323.0974</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1229</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-366.2002</v>
+        <v>-326.0974</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1260</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/07</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-400.2002</v>
+        <v>-329.0974</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1240</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-393.2002</v>
+        <v>-332.0974</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1173</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/06/01</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-386.2002</v>
+        <v>-391.2002</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1173</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/05/31</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-379.2002</v>
+        <v>-366.2002</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-372.2002</v>
+        <v>-400.2002</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1158</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-367.9162</v>
+        <v>-393.2002</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1172</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/01</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-343.9162</v>
+        <v>-386.2002</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/31</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-321.9162</v>
+        <v>-379.2002</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1151</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-333.9162</v>
+        <v>-372.2002</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1147</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/05/25</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-340.2495333333333</v>
+        <v>-367.9162</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/05/24</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-346.5828666666667</v>
+        <v>-343.9162</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-352.9162</v>
+        <v>-321.9162</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1182</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-331.1604</v>
+        <v>-333.9162</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1206</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/25</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-315.1604</v>
+        <v>-340.2495333333333</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1202</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/24</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-324.1604</v>
+        <v>-346.5828666666667</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1231</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-331.1604</v>
+        <v>-352.9162</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1227</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/05/18</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-335.4937333333333</v>
+        <v>-331.1604</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1248</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/05/17</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-339.8270666666667</v>
+        <v>-315.1604</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-344.1604</v>
+        <v>-324.1604</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1224</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-319.4241</v>
+        <v>-331.1604</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/18</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-309.4241</v>
+        <v>-335.4937333333333</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1268</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/17</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-339.4241</v>
+        <v>-339.8270666666667</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1267</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-310.4241</v>
+        <v>-344.1604</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1293</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/05/11</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-314.0907666666667</v>
+        <v>-319.4241</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/05/10</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-317.7574333333333</v>
+        <v>-309.4241</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-321.4241</v>
+        <v>-339.4241</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-329.2745</v>
+        <v>-310.4241</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1261</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/11</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-312.2745</v>
+        <v>-314.0907666666667</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -9071,177 +9071,177 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/10</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-315.2745</v>
+        <v>-317.7574333333333</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1322</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/05/05</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-312.4732166666666</v>
+        <v>-321.4241</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1323</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/05/04</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-309.6719333333333</v>
+        <v>-329.2745</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1348</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/05/03</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-306.87065</v>
+        <v>-312.2745</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1342</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-304.0693666666667</v>
+        <v>-315.2745</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1337</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/05</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-301.2680833333333</v>
+        <v>-312.4732166666666</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1328</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/04</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-298.4668</v>
+        <v>-309.6719333333333</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1362</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-272.4668</v>
+        <v>-306.87065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1397</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-258.4668</v>
+        <v>-304.0693666666667</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1387</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-258.8001333333333</v>
+        <v>-301.2680833333333</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -9251,429 +9251,429 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/04/26</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-259.1334666666667</v>
+        <v>-298.4668</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1409</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-259.4668</v>
+        <v>-272.4668</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-250.2066</v>
+        <v>-258.4668</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1454</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-231.2066</v>
+        <v>-258.8001333333333</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/26</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-261.2066</v>
+        <v>-259.1334666666667</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1391</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-255.2066</v>
+        <v>-259.4668</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1391</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/04/20</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-257.8732666666667</v>
+        <v>-250.2066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1362</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/04/19</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-260.5399333333334</v>
+        <v>-231.2066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1309</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-263.2066</v>
+        <v>-261.2066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1319</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-217.7067</v>
+        <v>-255.2066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1294</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/20</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-198.7067</v>
+        <v>-257.8732666666667</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/19</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-239.7067</v>
+        <v>-260.5399333333334</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1336</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-231.7067</v>
+        <v>-263.2066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1342</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/04/13</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-233.7067</v>
+        <v>-217.7067</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/04/12</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-235.7067</v>
+        <v>-198.7067</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1327</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-237.7067</v>
+        <v>-239.7067</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-208.059</v>
+        <v>-231.7067</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/13</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-197.059</v>
+        <v>-233.7067</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/12</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-187.059</v>
+        <v>-235.7067</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1368</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-197.059</v>
+        <v>-237.7067</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1396</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/04/06</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-188.7942</v>
+        <v>-208.059</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/04/05</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-180.5294</v>
+        <v>-197.059</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1373</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-172.2646</v>
+        <v>-187.059</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1398</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-163.9998</v>
+        <v>-197.059</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9683,303 +9683,303 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/06</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-136.9998</v>
+        <v>-188.7942</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1372</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/05</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-126.9998</v>
+        <v>-180.5294</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1363</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-180.9998</v>
+        <v>-172.2646</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025/03/30</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-175.6664666666667</v>
+        <v>-163.9998</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1247</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025/03/29</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-170.3331333333333</v>
+        <v>-136.9998</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1230</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-164.9998</v>
+        <v>-126.9998</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1226</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-96.62520000000001</v>
+        <v>-180.9998</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1204</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/30</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-103.6252</v>
+        <v>-175.6664666666667</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1204</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/29</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-72.62520000000001</v>
+        <v>-170.3331333333333</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-92.62520000000001</v>
+        <v>-164.9998</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1249</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025/03/23</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-114.9585333333333</v>
+        <v>-96.62520000000001</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1282</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025/03/22</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-137.2918666666667</v>
+        <v>-103.6252</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1294</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-159.6252</v>
+        <v>-72.62520000000001</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1263</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-150.0617</v>
+        <v>-92.62520000000001</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1246</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/23</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-147.0617</v>
+        <v>-114.9585333333333</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1243</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/22</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-165.0617</v>
+        <v>-137.2918666666667</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1242</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-151.0617</v>
+        <v>-159.6252</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -9989,1009 +9989,1009 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025/03/16</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-154.0617</v>
+        <v>-150.0617</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025/03/15</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-157.0617</v>
+        <v>-147.0617</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1276</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-160.0617</v>
+        <v>-165.0617</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1251</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-180.5693</v>
+        <v>-151.0617</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1257</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/16</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-184.5693</v>
+        <v>-154.0617</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1239</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/15</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-178.5693</v>
+        <v>-157.0617</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-188.5693</v>
+        <v>-160.0617</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1282</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025/03/09</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-175.5693</v>
+        <v>-180.5693</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1336</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025/03/08</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-162.5693</v>
+        <v>-184.5693</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1315</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-149.5693</v>
+        <v>-178.5693</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1326</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-154.5238</v>
+        <v>-188.5693</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1353</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/09</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-158.5238</v>
+        <v>-175.5693</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1385</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/08</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-129.5238</v>
+        <v>-162.5693</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1383</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-133.5238</v>
+        <v>-149.5693</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025/03/02</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-126.5238</v>
+        <v>-154.5238</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1337</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025/03/01</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-119.5238</v>
+        <v>-158.5238</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1365</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-112.5238</v>
+        <v>-129.5238</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1357</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-145.4349</v>
+        <v>-133.5238</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/02</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-155.4349</v>
+        <v>-126.5238</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/03/01</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-142.4349</v>
+        <v>-119.5238</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1412</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-111.4349</v>
+        <v>-112.5238</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1349</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025/02/23</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-111.7682333333333</v>
+        <v>-145.4349</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1349</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025/02/22</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-112.1015666666667</v>
+        <v>-155.4349</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1255</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-112.4349</v>
+        <v>-142.4349</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1265</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-115.8934</v>
+        <v>-111.4349</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1246</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/23</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-135.8934</v>
+        <v>-111.7682333333333</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1230</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/22</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-128.8934</v>
+        <v>-112.1015666666667</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1184</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-137.8934</v>
+        <v>-112.4349</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1310</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025/02/16</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-141.2267333333334</v>
+        <v>-115.8934</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1294</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025/02/15</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-144.5600666666667</v>
+        <v>-135.8934</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1226</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-147.8934</v>
+        <v>-128.8934</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1184</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-173.4116</v>
+        <v>-137.8934</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1149</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/16</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-122.4116</v>
+        <v>-141.2267333333334</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/15</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-121.4116</v>
+        <v>-144.5600666666667</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1212</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-96.41160000000001</v>
+        <v>-147.8934</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1290</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025/02/09</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-98.41160000000001</v>
+        <v>-173.4116</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1206</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-100.4116</v>
+        <v>-122.4116</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1143</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-102.4116</v>
+        <v>-121.4116</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1129</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-308.8575</v>
+        <v>-96.41160000000001</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1115</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/09</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-317.8575</v>
+        <v>-98.41160000000001</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1062</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-314.0797222222222</v>
+        <v>-100.4116</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-310.3019444444445</v>
+        <v>-102.4116</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025/02/02</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-306.5241666666667</v>
+        <v>-308.8575</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025/02/01</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-302.7463888888889</v>
+        <v>-317.8575</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1021</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-298.9686111111111</v>
+        <v>-314.0797222222222</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-295.1908333333333</v>
+        <v>-310.3019444444445</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1089</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/02/02</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-291.4130555555556</v>
+        <v>-306.5241666666667</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>1086</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/02/01</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-287.6352777777778</v>
+        <v>-302.7463888888889</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1118</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-283.8575</v>
+        <v>-298.9686111111111</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1123</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-272.1908333333333</v>
+        <v>-295.1908333333333</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2025/01/25</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-260.5241666666666</v>
+        <v>-291.4130555555556</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-248.8575</v>
+        <v>-287.6352777777778</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1143</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-252.8938</v>
+        <v>-283.8575</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1178</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-242.8938</v>
+        <v>-272.1908333333333</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1264</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/25</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-230.8938</v>
+        <v>-260.5241666666666</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1261</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-222.8938</v>
+        <v>-248.8575</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1252</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
